--- a/LibraryBooks.xlsx
+++ b/LibraryBooks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syed.naqvi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syed.naqvi\Music\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DF6217-F138-44BA-AB52-D520F22AE7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FFEB3D-1AAF-4E69-B3B8-A8AAE1B592CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6748" uniqueCount="4916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6750" uniqueCount="4918">
   <si>
     <t>Book Name</t>
   </si>
@@ -14781,6 +14781,12 @@
   </si>
   <si>
     <t>Pereire,Anita</t>
+  </si>
+  <si>
+    <t>Borrower Name:</t>
+  </si>
+  <si>
+    <t>Borrower Email Address</t>
   </si>
 </sst>
 </file>
@@ -14861,6 +14867,20 @@
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -14889,20 +14909,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -14917,18 +14923,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97F63E4C-E9D5-49EE-A515-F2C4B0C055E5}" name="Table1" displayName="Table1" ref="A1:G1692" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="A1:G1692" xr:uid="{97F63E4C-E9D5-49EE-A515-F2C4B0C055E5}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97F63E4C-E9D5-49EE-A515-F2C4B0C055E5}" name="Table1" displayName="Table1" ref="A1:I1692" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:I1692" xr:uid="{97F63E4C-E9D5-49EE-A515-F2C4B0C055E5}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A59A8F3A-098C-44EE-B191-A36E49724B02}" name="Book Name"/>
     <tableColumn id="2" xr3:uid="{952F70D2-F5DF-4561-917A-918AFD4E3EB3}" name="Area"/>
     <tableColumn id="3" xr3:uid="{9E8CFF03-1040-4603-9C9C-42A41F10AA4D}" name="ISBN NUMBER"/>
     <tableColumn id="4" xr3:uid="{899FC9B4-AA9B-43D4-AC5A-BCF8B4B44D1D}" name="Author"/>
     <tableColumn id="5" xr3:uid="{BE1F85DA-AEA9-496D-A8AF-0651B3F5A4E4}" name="Quantity"/>
-    <tableColumn id="6" xr3:uid="{A1A45445-7511-4691-9016-BBFEB5303C23}" name="Date Borrowed" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{D90825DF-3A24-4EE5-BB34-71E4C790FE2D}" name="Date Returned" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{A1A45445-7511-4691-9016-BBFEB5303C23}" name="Date Borrowed" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D90825DF-3A24-4EE5-BB34-71E4C790FE2D}" name="Date Returned" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Date Borrowed]]+14</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{A463047B-A3D5-4203-87E7-E9F103EDE555}" name="Borrower Name:"/>
+    <tableColumn id="9" xr3:uid="{043E5265-22FC-4841-8D48-269D665BD330}" name="Borrower Email Address"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15221,10 +15229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1692"/>
+  <dimension ref="A1:I1692"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1697" sqref="A1697"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15238,7 +15246,7 @@
     <col min="7" max="7" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15260,8 +15268,14 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>4916</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -15285,7 +15299,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -15309,7 +15323,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -15330,7 +15344,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -15354,7 +15368,7 @@
         <v>45843</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -15378,7 +15392,7 @@
         <v>45844</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -15402,7 +15416,7 @@
         <v>45845</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -15426,7 +15440,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -15450,7 +15464,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -15474,7 +15488,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -15495,7 +15509,7 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -15519,7 +15533,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -15543,7 +15557,7 @@
         <v>45851</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -15567,7 +15581,7 @@
         <v>45852</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -15591,7 +15605,7 @@
         <v>45853</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
